--- a/apples.xlsx
+++ b/apples.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28109"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickparis/SanFran6Homes/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="150" yWindow="120" windowWidth="12570" windowHeight="9465"/>
+    <workbookView xWindow="160" yWindow="460" windowWidth="12580" windowHeight="9460"/>
   </bookViews>
   <sheets>
     <sheet name="Apples" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -330,44 +343,44 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -375,10 +388,10 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -388,10 +401,10 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -404,7 +417,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -413,19 +426,19 @@
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
@@ -434,7 +447,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -445,7 +458,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -458,7 +471,7 @@
         <color theme="0"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -468,7 +481,7 @@
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -480,10 +493,10 @@
         <color theme="0" tint="-0.499984740745262"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -492,13 +505,13 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
         <color theme="0" tint="-0.499984740745262"/>
       </right>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -509,7 +522,7 @@
       <left/>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -522,7 +535,7 @@
       </left>
       <right/>
       <top style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color theme="0"/>
@@ -534,7 +547,7 @@
       <right/>
       <top/>
       <bottom style="double">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -604,72 +617,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -737,12 +750,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -772,12 +785,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -987,693 +1000,693 @@
       <selection sqref="A1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.7109375" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="254" max="254" width="19.85546875" customWidth="1"/>
-    <col min="255" max="255" width="9.140625" customWidth="1"/>
-    <col min="256" max="256" width="12.7109375" customWidth="1"/>
-    <col min="257" max="257" width="14.85546875" customWidth="1"/>
+    <col min="254" max="254" width="19.83203125" customWidth="1"/>
+    <col min="255" max="255" width="9.1640625" customWidth="1"/>
+    <col min="256" max="256" width="12.6640625" customWidth="1"/>
+    <col min="257" max="257" width="14.83203125" customWidth="1"/>
     <col min="258" max="258" width="10" customWidth="1"/>
-    <col min="259" max="259" width="6.140625" customWidth="1"/>
-    <col min="260" max="260" width="9.28515625" customWidth="1"/>
+    <col min="259" max="259" width="6.1640625" customWidth="1"/>
+    <col min="260" max="260" width="9.33203125" customWidth="1"/>
     <col min="261" max="261" width="9" customWidth="1"/>
-    <col min="262" max="262" width="11.28515625" customWidth="1"/>
-    <col min="263" max="263" width="17.85546875" customWidth="1"/>
-    <col min="510" max="510" width="19.85546875" customWidth="1"/>
-    <col min="511" max="511" width="9.140625" customWidth="1"/>
-    <col min="512" max="512" width="12.7109375" customWidth="1"/>
-    <col min="513" max="513" width="14.85546875" customWidth="1"/>
+    <col min="262" max="262" width="11.33203125" customWidth="1"/>
+    <col min="263" max="263" width="17.83203125" customWidth="1"/>
+    <col min="510" max="510" width="19.83203125" customWidth="1"/>
+    <col min="511" max="511" width="9.1640625" customWidth="1"/>
+    <col min="512" max="512" width="12.6640625" customWidth="1"/>
+    <col min="513" max="513" width="14.83203125" customWidth="1"/>
     <col min="514" max="514" width="10" customWidth="1"/>
-    <col min="515" max="515" width="6.140625" customWidth="1"/>
-    <col min="516" max="516" width="9.28515625" customWidth="1"/>
+    <col min="515" max="515" width="6.1640625" customWidth="1"/>
+    <col min="516" max="516" width="9.33203125" customWidth="1"/>
     <col min="517" max="517" width="9" customWidth="1"/>
-    <col min="518" max="518" width="11.28515625" customWidth="1"/>
-    <col min="519" max="519" width="17.85546875" customWidth="1"/>
-    <col min="766" max="766" width="19.85546875" customWidth="1"/>
-    <col min="767" max="767" width="9.140625" customWidth="1"/>
-    <col min="768" max="768" width="12.7109375" customWidth="1"/>
-    <col min="769" max="769" width="14.85546875" customWidth="1"/>
+    <col min="518" max="518" width="11.33203125" customWidth="1"/>
+    <col min="519" max="519" width="17.83203125" customWidth="1"/>
+    <col min="766" max="766" width="19.83203125" customWidth="1"/>
+    <col min="767" max="767" width="9.1640625" customWidth="1"/>
+    <col min="768" max="768" width="12.6640625" customWidth="1"/>
+    <col min="769" max="769" width="14.83203125" customWidth="1"/>
     <col min="770" max="770" width="10" customWidth="1"/>
-    <col min="771" max="771" width="6.140625" customWidth="1"/>
-    <col min="772" max="772" width="9.28515625" customWidth="1"/>
+    <col min="771" max="771" width="6.1640625" customWidth="1"/>
+    <col min="772" max="772" width="9.33203125" customWidth="1"/>
     <col min="773" max="773" width="9" customWidth="1"/>
-    <col min="774" max="774" width="11.28515625" customWidth="1"/>
-    <col min="775" max="775" width="17.85546875" customWidth="1"/>
-    <col min="1022" max="1022" width="19.85546875" customWidth="1"/>
-    <col min="1023" max="1023" width="9.140625" customWidth="1"/>
-    <col min="1024" max="1024" width="12.7109375" customWidth="1"/>
-    <col min="1025" max="1025" width="14.85546875" customWidth="1"/>
+    <col min="774" max="774" width="11.33203125" customWidth="1"/>
+    <col min="775" max="775" width="17.83203125" customWidth="1"/>
+    <col min="1022" max="1022" width="19.83203125" customWidth="1"/>
+    <col min="1023" max="1023" width="9.1640625" customWidth="1"/>
+    <col min="1024" max="1024" width="12.6640625" customWidth="1"/>
+    <col min="1025" max="1025" width="14.83203125" customWidth="1"/>
     <col min="1026" max="1026" width="10" customWidth="1"/>
-    <col min="1027" max="1027" width="6.140625" customWidth="1"/>
-    <col min="1028" max="1028" width="9.28515625" customWidth="1"/>
+    <col min="1027" max="1027" width="6.1640625" customWidth="1"/>
+    <col min="1028" max="1028" width="9.33203125" customWidth="1"/>
     <col min="1029" max="1029" width="9" customWidth="1"/>
-    <col min="1030" max="1030" width="11.28515625" customWidth="1"/>
-    <col min="1031" max="1031" width="17.85546875" customWidth="1"/>
-    <col min="1278" max="1278" width="19.85546875" customWidth="1"/>
-    <col min="1279" max="1279" width="9.140625" customWidth="1"/>
-    <col min="1280" max="1280" width="12.7109375" customWidth="1"/>
-    <col min="1281" max="1281" width="14.85546875" customWidth="1"/>
+    <col min="1030" max="1030" width="11.33203125" customWidth="1"/>
+    <col min="1031" max="1031" width="17.83203125" customWidth="1"/>
+    <col min="1278" max="1278" width="19.83203125" customWidth="1"/>
+    <col min="1279" max="1279" width="9.1640625" customWidth="1"/>
+    <col min="1280" max="1280" width="12.6640625" customWidth="1"/>
+    <col min="1281" max="1281" width="14.83203125" customWidth="1"/>
     <col min="1282" max="1282" width="10" customWidth="1"/>
-    <col min="1283" max="1283" width="6.140625" customWidth="1"/>
-    <col min="1284" max="1284" width="9.28515625" customWidth="1"/>
+    <col min="1283" max="1283" width="6.1640625" customWidth="1"/>
+    <col min="1284" max="1284" width="9.33203125" customWidth="1"/>
     <col min="1285" max="1285" width="9" customWidth="1"/>
-    <col min="1286" max="1286" width="11.28515625" customWidth="1"/>
-    <col min="1287" max="1287" width="17.85546875" customWidth="1"/>
-    <col min="1534" max="1534" width="19.85546875" customWidth="1"/>
-    <col min="1535" max="1535" width="9.140625" customWidth="1"/>
-    <col min="1536" max="1536" width="12.7109375" customWidth="1"/>
-    <col min="1537" max="1537" width="14.85546875" customWidth="1"/>
+    <col min="1286" max="1286" width="11.33203125" customWidth="1"/>
+    <col min="1287" max="1287" width="17.83203125" customWidth="1"/>
+    <col min="1534" max="1534" width="19.83203125" customWidth="1"/>
+    <col min="1535" max="1535" width="9.1640625" customWidth="1"/>
+    <col min="1536" max="1536" width="12.6640625" customWidth="1"/>
+    <col min="1537" max="1537" width="14.83203125" customWidth="1"/>
     <col min="1538" max="1538" width="10" customWidth="1"/>
-    <col min="1539" max="1539" width="6.140625" customWidth="1"/>
-    <col min="1540" max="1540" width="9.28515625" customWidth="1"/>
+    <col min="1539" max="1539" width="6.1640625" customWidth="1"/>
+    <col min="1540" max="1540" width="9.33203125" customWidth="1"/>
     <col min="1541" max="1541" width="9" customWidth="1"/>
-    <col min="1542" max="1542" width="11.28515625" customWidth="1"/>
-    <col min="1543" max="1543" width="17.85546875" customWidth="1"/>
-    <col min="1790" max="1790" width="19.85546875" customWidth="1"/>
-    <col min="1791" max="1791" width="9.140625" customWidth="1"/>
-    <col min="1792" max="1792" width="12.7109375" customWidth="1"/>
-    <col min="1793" max="1793" width="14.85546875" customWidth="1"/>
+    <col min="1542" max="1542" width="11.33203125" customWidth="1"/>
+    <col min="1543" max="1543" width="17.83203125" customWidth="1"/>
+    <col min="1790" max="1790" width="19.83203125" customWidth="1"/>
+    <col min="1791" max="1791" width="9.1640625" customWidth="1"/>
+    <col min="1792" max="1792" width="12.6640625" customWidth="1"/>
+    <col min="1793" max="1793" width="14.83203125" customWidth="1"/>
     <col min="1794" max="1794" width="10" customWidth="1"/>
-    <col min="1795" max="1795" width="6.140625" customWidth="1"/>
-    <col min="1796" max="1796" width="9.28515625" customWidth="1"/>
+    <col min="1795" max="1795" width="6.1640625" customWidth="1"/>
+    <col min="1796" max="1796" width="9.33203125" customWidth="1"/>
     <col min="1797" max="1797" width="9" customWidth="1"/>
-    <col min="1798" max="1798" width="11.28515625" customWidth="1"/>
-    <col min="1799" max="1799" width="17.85546875" customWidth="1"/>
-    <col min="2046" max="2046" width="19.85546875" customWidth="1"/>
-    <col min="2047" max="2047" width="9.140625" customWidth="1"/>
-    <col min="2048" max="2048" width="12.7109375" customWidth="1"/>
-    <col min="2049" max="2049" width="14.85546875" customWidth="1"/>
+    <col min="1798" max="1798" width="11.33203125" customWidth="1"/>
+    <col min="1799" max="1799" width="17.83203125" customWidth="1"/>
+    <col min="2046" max="2046" width="19.83203125" customWidth="1"/>
+    <col min="2047" max="2047" width="9.1640625" customWidth="1"/>
+    <col min="2048" max="2048" width="12.6640625" customWidth="1"/>
+    <col min="2049" max="2049" width="14.83203125" customWidth="1"/>
     <col min="2050" max="2050" width="10" customWidth="1"/>
-    <col min="2051" max="2051" width="6.140625" customWidth="1"/>
-    <col min="2052" max="2052" width="9.28515625" customWidth="1"/>
+    <col min="2051" max="2051" width="6.1640625" customWidth="1"/>
+    <col min="2052" max="2052" width="9.33203125" customWidth="1"/>
     <col min="2053" max="2053" width="9" customWidth="1"/>
-    <col min="2054" max="2054" width="11.28515625" customWidth="1"/>
-    <col min="2055" max="2055" width="17.85546875" customWidth="1"/>
-    <col min="2302" max="2302" width="19.85546875" customWidth="1"/>
-    <col min="2303" max="2303" width="9.140625" customWidth="1"/>
-    <col min="2304" max="2304" width="12.7109375" customWidth="1"/>
-    <col min="2305" max="2305" width="14.85546875" customWidth="1"/>
+    <col min="2054" max="2054" width="11.33203125" customWidth="1"/>
+    <col min="2055" max="2055" width="17.83203125" customWidth="1"/>
+    <col min="2302" max="2302" width="19.83203125" customWidth="1"/>
+    <col min="2303" max="2303" width="9.1640625" customWidth="1"/>
+    <col min="2304" max="2304" width="12.6640625" customWidth="1"/>
+    <col min="2305" max="2305" width="14.83203125" customWidth="1"/>
     <col min="2306" max="2306" width="10" customWidth="1"/>
-    <col min="2307" max="2307" width="6.140625" customWidth="1"/>
-    <col min="2308" max="2308" width="9.28515625" customWidth="1"/>
+    <col min="2307" max="2307" width="6.1640625" customWidth="1"/>
+    <col min="2308" max="2308" width="9.33203125" customWidth="1"/>
     <col min="2309" max="2309" width="9" customWidth="1"/>
-    <col min="2310" max="2310" width="11.28515625" customWidth="1"/>
-    <col min="2311" max="2311" width="17.85546875" customWidth="1"/>
-    <col min="2558" max="2558" width="19.85546875" customWidth="1"/>
-    <col min="2559" max="2559" width="9.140625" customWidth="1"/>
-    <col min="2560" max="2560" width="12.7109375" customWidth="1"/>
-    <col min="2561" max="2561" width="14.85546875" customWidth="1"/>
+    <col min="2310" max="2310" width="11.33203125" customWidth="1"/>
+    <col min="2311" max="2311" width="17.83203125" customWidth="1"/>
+    <col min="2558" max="2558" width="19.83203125" customWidth="1"/>
+    <col min="2559" max="2559" width="9.1640625" customWidth="1"/>
+    <col min="2560" max="2560" width="12.6640625" customWidth="1"/>
+    <col min="2561" max="2561" width="14.83203125" customWidth="1"/>
     <col min="2562" max="2562" width="10" customWidth="1"/>
-    <col min="2563" max="2563" width="6.140625" customWidth="1"/>
-    <col min="2564" max="2564" width="9.28515625" customWidth="1"/>
+    <col min="2563" max="2563" width="6.1640625" customWidth="1"/>
+    <col min="2564" max="2564" width="9.33203125" customWidth="1"/>
     <col min="2565" max="2565" width="9" customWidth="1"/>
-    <col min="2566" max="2566" width="11.28515625" customWidth="1"/>
-    <col min="2567" max="2567" width="17.85546875" customWidth="1"/>
-    <col min="2814" max="2814" width="19.85546875" customWidth="1"/>
-    <col min="2815" max="2815" width="9.140625" customWidth="1"/>
-    <col min="2816" max="2816" width="12.7109375" customWidth="1"/>
-    <col min="2817" max="2817" width="14.85546875" customWidth="1"/>
+    <col min="2566" max="2566" width="11.33203125" customWidth="1"/>
+    <col min="2567" max="2567" width="17.83203125" customWidth="1"/>
+    <col min="2814" max="2814" width="19.83203125" customWidth="1"/>
+    <col min="2815" max="2815" width="9.1640625" customWidth="1"/>
+    <col min="2816" max="2816" width="12.6640625" customWidth="1"/>
+    <col min="2817" max="2817" width="14.83203125" customWidth="1"/>
     <col min="2818" max="2818" width="10" customWidth="1"/>
-    <col min="2819" max="2819" width="6.140625" customWidth="1"/>
-    <col min="2820" max="2820" width="9.28515625" customWidth="1"/>
+    <col min="2819" max="2819" width="6.1640625" customWidth="1"/>
+    <col min="2820" max="2820" width="9.33203125" customWidth="1"/>
     <col min="2821" max="2821" width="9" customWidth="1"/>
-    <col min="2822" max="2822" width="11.28515625" customWidth="1"/>
-    <col min="2823" max="2823" width="17.85546875" customWidth="1"/>
-    <col min="3070" max="3070" width="19.85546875" customWidth="1"/>
-    <col min="3071" max="3071" width="9.140625" customWidth="1"/>
-    <col min="3072" max="3072" width="12.7109375" customWidth="1"/>
-    <col min="3073" max="3073" width="14.85546875" customWidth="1"/>
+    <col min="2822" max="2822" width="11.33203125" customWidth="1"/>
+    <col min="2823" max="2823" width="17.83203125" customWidth="1"/>
+    <col min="3070" max="3070" width="19.83203125" customWidth="1"/>
+    <col min="3071" max="3071" width="9.1640625" customWidth="1"/>
+    <col min="3072" max="3072" width="12.6640625" customWidth="1"/>
+    <col min="3073" max="3073" width="14.83203125" customWidth="1"/>
     <col min="3074" max="3074" width="10" customWidth="1"/>
-    <col min="3075" max="3075" width="6.140625" customWidth="1"/>
-    <col min="3076" max="3076" width="9.28515625" customWidth="1"/>
+    <col min="3075" max="3075" width="6.1640625" customWidth="1"/>
+    <col min="3076" max="3076" width="9.33203125" customWidth="1"/>
     <col min="3077" max="3077" width="9" customWidth="1"/>
-    <col min="3078" max="3078" width="11.28515625" customWidth="1"/>
-    <col min="3079" max="3079" width="17.85546875" customWidth="1"/>
-    <col min="3326" max="3326" width="19.85546875" customWidth="1"/>
-    <col min="3327" max="3327" width="9.140625" customWidth="1"/>
-    <col min="3328" max="3328" width="12.7109375" customWidth="1"/>
-    <col min="3329" max="3329" width="14.85546875" customWidth="1"/>
+    <col min="3078" max="3078" width="11.33203125" customWidth="1"/>
+    <col min="3079" max="3079" width="17.83203125" customWidth="1"/>
+    <col min="3326" max="3326" width="19.83203125" customWidth="1"/>
+    <col min="3327" max="3327" width="9.1640625" customWidth="1"/>
+    <col min="3328" max="3328" width="12.6640625" customWidth="1"/>
+    <col min="3329" max="3329" width="14.83203125" customWidth="1"/>
     <col min="3330" max="3330" width="10" customWidth="1"/>
-    <col min="3331" max="3331" width="6.140625" customWidth="1"/>
-    <col min="3332" max="3332" width="9.28515625" customWidth="1"/>
+    <col min="3331" max="3331" width="6.1640625" customWidth="1"/>
+    <col min="3332" max="3332" width="9.33203125" customWidth="1"/>
     <col min="3333" max="3333" width="9" customWidth="1"/>
-    <col min="3334" max="3334" width="11.28515625" customWidth="1"/>
-    <col min="3335" max="3335" width="17.85546875" customWidth="1"/>
-    <col min="3582" max="3582" width="19.85546875" customWidth="1"/>
-    <col min="3583" max="3583" width="9.140625" customWidth="1"/>
-    <col min="3584" max="3584" width="12.7109375" customWidth="1"/>
-    <col min="3585" max="3585" width="14.85546875" customWidth="1"/>
+    <col min="3334" max="3334" width="11.33203125" customWidth="1"/>
+    <col min="3335" max="3335" width="17.83203125" customWidth="1"/>
+    <col min="3582" max="3582" width="19.83203125" customWidth="1"/>
+    <col min="3583" max="3583" width="9.1640625" customWidth="1"/>
+    <col min="3584" max="3584" width="12.6640625" customWidth="1"/>
+    <col min="3585" max="3585" width="14.83203125" customWidth="1"/>
     <col min="3586" max="3586" width="10" customWidth="1"/>
-    <col min="3587" max="3587" width="6.140625" customWidth="1"/>
-    <col min="3588" max="3588" width="9.28515625" customWidth="1"/>
+    <col min="3587" max="3587" width="6.1640625" customWidth="1"/>
+    <col min="3588" max="3588" width="9.33203125" customWidth="1"/>
     <col min="3589" max="3589" width="9" customWidth="1"/>
-    <col min="3590" max="3590" width="11.28515625" customWidth="1"/>
-    <col min="3591" max="3591" width="17.85546875" customWidth="1"/>
-    <col min="3838" max="3838" width="19.85546875" customWidth="1"/>
-    <col min="3839" max="3839" width="9.140625" customWidth="1"/>
-    <col min="3840" max="3840" width="12.7109375" customWidth="1"/>
-    <col min="3841" max="3841" width="14.85546875" customWidth="1"/>
+    <col min="3590" max="3590" width="11.33203125" customWidth="1"/>
+    <col min="3591" max="3591" width="17.83203125" customWidth="1"/>
+    <col min="3838" max="3838" width="19.83203125" customWidth="1"/>
+    <col min="3839" max="3839" width="9.1640625" customWidth="1"/>
+    <col min="3840" max="3840" width="12.6640625" customWidth="1"/>
+    <col min="3841" max="3841" width="14.83203125" customWidth="1"/>
     <col min="3842" max="3842" width="10" customWidth="1"/>
-    <col min="3843" max="3843" width="6.140625" customWidth="1"/>
-    <col min="3844" max="3844" width="9.28515625" customWidth="1"/>
+    <col min="3843" max="3843" width="6.1640625" customWidth="1"/>
+    <col min="3844" max="3844" width="9.33203125" customWidth="1"/>
     <col min="3845" max="3845" width="9" customWidth="1"/>
-    <col min="3846" max="3846" width="11.28515625" customWidth="1"/>
-    <col min="3847" max="3847" width="17.85546875" customWidth="1"/>
-    <col min="4094" max="4094" width="19.85546875" customWidth="1"/>
-    <col min="4095" max="4095" width="9.140625" customWidth="1"/>
-    <col min="4096" max="4096" width="12.7109375" customWidth="1"/>
-    <col min="4097" max="4097" width="14.85546875" customWidth="1"/>
+    <col min="3846" max="3846" width="11.33203125" customWidth="1"/>
+    <col min="3847" max="3847" width="17.83203125" customWidth="1"/>
+    <col min="4094" max="4094" width="19.83203125" customWidth="1"/>
+    <col min="4095" max="4095" width="9.1640625" customWidth="1"/>
+    <col min="4096" max="4096" width="12.6640625" customWidth="1"/>
+    <col min="4097" max="4097" width="14.83203125" customWidth="1"/>
     <col min="4098" max="4098" width="10" customWidth="1"/>
-    <col min="4099" max="4099" width="6.140625" customWidth="1"/>
-    <col min="4100" max="4100" width="9.28515625" customWidth="1"/>
+    <col min="4099" max="4099" width="6.1640625" customWidth="1"/>
+    <col min="4100" max="4100" width="9.33203125" customWidth="1"/>
     <col min="4101" max="4101" width="9" customWidth="1"/>
-    <col min="4102" max="4102" width="11.28515625" customWidth="1"/>
-    <col min="4103" max="4103" width="17.85546875" customWidth="1"/>
-    <col min="4350" max="4350" width="19.85546875" customWidth="1"/>
-    <col min="4351" max="4351" width="9.140625" customWidth="1"/>
-    <col min="4352" max="4352" width="12.7109375" customWidth="1"/>
-    <col min="4353" max="4353" width="14.85546875" customWidth="1"/>
+    <col min="4102" max="4102" width="11.33203125" customWidth="1"/>
+    <col min="4103" max="4103" width="17.83203125" customWidth="1"/>
+    <col min="4350" max="4350" width="19.83203125" customWidth="1"/>
+    <col min="4351" max="4351" width="9.1640625" customWidth="1"/>
+    <col min="4352" max="4352" width="12.6640625" customWidth="1"/>
+    <col min="4353" max="4353" width="14.83203125" customWidth="1"/>
     <col min="4354" max="4354" width="10" customWidth="1"/>
-    <col min="4355" max="4355" width="6.140625" customWidth="1"/>
-    <col min="4356" max="4356" width="9.28515625" customWidth="1"/>
+    <col min="4355" max="4355" width="6.1640625" customWidth="1"/>
+    <col min="4356" max="4356" width="9.33203125" customWidth="1"/>
     <col min="4357" max="4357" width="9" customWidth="1"/>
-    <col min="4358" max="4358" width="11.28515625" customWidth="1"/>
-    <col min="4359" max="4359" width="17.85546875" customWidth="1"/>
-    <col min="4606" max="4606" width="19.85546875" customWidth="1"/>
-    <col min="4607" max="4607" width="9.140625" customWidth="1"/>
-    <col min="4608" max="4608" width="12.7109375" customWidth="1"/>
-    <col min="4609" max="4609" width="14.85546875" customWidth="1"/>
+    <col min="4358" max="4358" width="11.33203125" customWidth="1"/>
+    <col min="4359" max="4359" width="17.83203125" customWidth="1"/>
+    <col min="4606" max="4606" width="19.83203125" customWidth="1"/>
+    <col min="4607" max="4607" width="9.1640625" customWidth="1"/>
+    <col min="4608" max="4608" width="12.6640625" customWidth="1"/>
+    <col min="4609" max="4609" width="14.83203125" customWidth="1"/>
     <col min="4610" max="4610" width="10" customWidth="1"/>
-    <col min="4611" max="4611" width="6.140625" customWidth="1"/>
-    <col min="4612" max="4612" width="9.28515625" customWidth="1"/>
+    <col min="4611" max="4611" width="6.1640625" customWidth="1"/>
+    <col min="4612" max="4612" width="9.33203125" customWidth="1"/>
     <col min="4613" max="4613" width="9" customWidth="1"/>
-    <col min="4614" max="4614" width="11.28515625" customWidth="1"/>
-    <col min="4615" max="4615" width="17.85546875" customWidth="1"/>
-    <col min="4862" max="4862" width="19.85546875" customWidth="1"/>
-    <col min="4863" max="4863" width="9.140625" customWidth="1"/>
-    <col min="4864" max="4864" width="12.7109375" customWidth="1"/>
-    <col min="4865" max="4865" width="14.85546875" customWidth="1"/>
+    <col min="4614" max="4614" width="11.33203125" customWidth="1"/>
+    <col min="4615" max="4615" width="17.83203125" customWidth="1"/>
+    <col min="4862" max="4862" width="19.83203125" customWidth="1"/>
+    <col min="4863" max="4863" width="9.1640625" customWidth="1"/>
+    <col min="4864" max="4864" width="12.6640625" customWidth="1"/>
+    <col min="4865" max="4865" width="14.83203125" customWidth="1"/>
     <col min="4866" max="4866" width="10" customWidth="1"/>
-    <col min="4867" max="4867" width="6.140625" customWidth="1"/>
-    <col min="4868" max="4868" width="9.28515625" customWidth="1"/>
+    <col min="4867" max="4867" width="6.1640625" customWidth="1"/>
+    <col min="4868" max="4868" width="9.33203125" customWidth="1"/>
     <col min="4869" max="4869" width="9" customWidth="1"/>
-    <col min="4870" max="4870" width="11.28515625" customWidth="1"/>
-    <col min="4871" max="4871" width="17.85546875" customWidth="1"/>
-    <col min="5118" max="5118" width="19.85546875" customWidth="1"/>
-    <col min="5119" max="5119" width="9.140625" customWidth="1"/>
-    <col min="5120" max="5120" width="12.7109375" customWidth="1"/>
-    <col min="5121" max="5121" width="14.85546875" customWidth="1"/>
+    <col min="4870" max="4870" width="11.33203125" customWidth="1"/>
+    <col min="4871" max="4871" width="17.83203125" customWidth="1"/>
+    <col min="5118" max="5118" width="19.83203125" customWidth="1"/>
+    <col min="5119" max="5119" width="9.1640625" customWidth="1"/>
+    <col min="5120" max="5120" width="12.6640625" customWidth="1"/>
+    <col min="5121" max="5121" width="14.83203125" customWidth="1"/>
     <col min="5122" max="5122" width="10" customWidth="1"/>
-    <col min="5123" max="5123" width="6.140625" customWidth="1"/>
-    <col min="5124" max="5124" width="9.28515625" customWidth="1"/>
+    <col min="5123" max="5123" width="6.1640625" customWidth="1"/>
+    <col min="5124" max="5124" width="9.33203125" customWidth="1"/>
     <col min="5125" max="5125" width="9" customWidth="1"/>
-    <col min="5126" max="5126" width="11.28515625" customWidth="1"/>
-    <col min="5127" max="5127" width="17.85546875" customWidth="1"/>
-    <col min="5374" max="5374" width="19.85546875" customWidth="1"/>
-    <col min="5375" max="5375" width="9.140625" customWidth="1"/>
-    <col min="5376" max="5376" width="12.7109375" customWidth="1"/>
-    <col min="5377" max="5377" width="14.85546875" customWidth="1"/>
+    <col min="5126" max="5126" width="11.33203125" customWidth="1"/>
+    <col min="5127" max="5127" width="17.83203125" customWidth="1"/>
+    <col min="5374" max="5374" width="19.83203125" customWidth="1"/>
+    <col min="5375" max="5375" width="9.1640625" customWidth="1"/>
+    <col min="5376" max="5376" width="12.6640625" customWidth="1"/>
+    <col min="5377" max="5377" width="14.83203125" customWidth="1"/>
     <col min="5378" max="5378" width="10" customWidth="1"/>
-    <col min="5379" max="5379" width="6.140625" customWidth="1"/>
-    <col min="5380" max="5380" width="9.28515625" customWidth="1"/>
+    <col min="5379" max="5379" width="6.1640625" customWidth="1"/>
+    <col min="5380" max="5380" width="9.33203125" customWidth="1"/>
     <col min="5381" max="5381" width="9" customWidth="1"/>
-    <col min="5382" max="5382" width="11.28515625" customWidth="1"/>
-    <col min="5383" max="5383" width="17.85546875" customWidth="1"/>
-    <col min="5630" max="5630" width="19.85546875" customWidth="1"/>
-    <col min="5631" max="5631" width="9.140625" customWidth="1"/>
-    <col min="5632" max="5632" width="12.7109375" customWidth="1"/>
-    <col min="5633" max="5633" width="14.85546875" customWidth="1"/>
+    <col min="5382" max="5382" width="11.33203125" customWidth="1"/>
+    <col min="5383" max="5383" width="17.83203125" customWidth="1"/>
+    <col min="5630" max="5630" width="19.83203125" customWidth="1"/>
+    <col min="5631" max="5631" width="9.1640625" customWidth="1"/>
+    <col min="5632" max="5632" width="12.6640625" customWidth="1"/>
+    <col min="5633" max="5633" width="14.83203125" customWidth="1"/>
     <col min="5634" max="5634" width="10" customWidth="1"/>
-    <col min="5635" max="5635" width="6.140625" customWidth="1"/>
-    <col min="5636" max="5636" width="9.28515625" customWidth="1"/>
+    <col min="5635" max="5635" width="6.1640625" customWidth="1"/>
+    <col min="5636" max="5636" width="9.33203125" customWidth="1"/>
     <col min="5637" max="5637" width="9" customWidth="1"/>
-    <col min="5638" max="5638" width="11.28515625" customWidth="1"/>
-    <col min="5639" max="5639" width="17.85546875" customWidth="1"/>
-    <col min="5886" max="5886" width="19.85546875" customWidth="1"/>
-    <col min="5887" max="5887" width="9.140625" customWidth="1"/>
-    <col min="5888" max="5888" width="12.7109375" customWidth="1"/>
-    <col min="5889" max="5889" width="14.85546875" customWidth="1"/>
+    <col min="5638" max="5638" width="11.33203125" customWidth="1"/>
+    <col min="5639" max="5639" width="17.83203125" customWidth="1"/>
+    <col min="5886" max="5886" width="19.83203125" customWidth="1"/>
+    <col min="5887" max="5887" width="9.1640625" customWidth="1"/>
+    <col min="5888" max="5888" width="12.6640625" customWidth="1"/>
+    <col min="5889" max="5889" width="14.83203125" customWidth="1"/>
     <col min="5890" max="5890" width="10" customWidth="1"/>
-    <col min="5891" max="5891" width="6.140625" customWidth="1"/>
-    <col min="5892" max="5892" width="9.28515625" customWidth="1"/>
+    <col min="5891" max="5891" width="6.1640625" customWidth="1"/>
+    <col min="5892" max="5892" width="9.33203125" customWidth="1"/>
     <col min="5893" max="5893" width="9" customWidth="1"/>
-    <col min="5894" max="5894" width="11.28515625" customWidth="1"/>
-    <col min="5895" max="5895" width="17.85546875" customWidth="1"/>
-    <col min="6142" max="6142" width="19.85546875" customWidth="1"/>
-    <col min="6143" max="6143" width="9.140625" customWidth="1"/>
-    <col min="6144" max="6144" width="12.7109375" customWidth="1"/>
-    <col min="6145" max="6145" width="14.85546875" customWidth="1"/>
+    <col min="5894" max="5894" width="11.33203125" customWidth="1"/>
+    <col min="5895" max="5895" width="17.83203125" customWidth="1"/>
+    <col min="6142" max="6142" width="19.83203125" customWidth="1"/>
+    <col min="6143" max="6143" width="9.1640625" customWidth="1"/>
+    <col min="6144" max="6144" width="12.6640625" customWidth="1"/>
+    <col min="6145" max="6145" width="14.83203125" customWidth="1"/>
     <col min="6146" max="6146" width="10" customWidth="1"/>
-    <col min="6147" max="6147" width="6.140625" customWidth="1"/>
-    <col min="6148" max="6148" width="9.28515625" customWidth="1"/>
+    <col min="6147" max="6147" width="6.1640625" customWidth="1"/>
+    <col min="6148" max="6148" width="9.33203125" customWidth="1"/>
     <col min="6149" max="6149" width="9" customWidth="1"/>
-    <col min="6150" max="6150" width="11.28515625" customWidth="1"/>
-    <col min="6151" max="6151" width="17.85546875" customWidth="1"/>
-    <col min="6398" max="6398" width="19.85546875" customWidth="1"/>
-    <col min="6399" max="6399" width="9.140625" customWidth="1"/>
-    <col min="6400" max="6400" width="12.7109375" customWidth="1"/>
-    <col min="6401" max="6401" width="14.85546875" customWidth="1"/>
+    <col min="6150" max="6150" width="11.33203125" customWidth="1"/>
+    <col min="6151" max="6151" width="17.83203125" customWidth="1"/>
+    <col min="6398" max="6398" width="19.83203125" customWidth="1"/>
+    <col min="6399" max="6399" width="9.1640625" customWidth="1"/>
+    <col min="6400" max="6400" width="12.6640625" customWidth="1"/>
+    <col min="6401" max="6401" width="14.83203125" customWidth="1"/>
     <col min="6402" max="6402" width="10" customWidth="1"/>
-    <col min="6403" max="6403" width="6.140625" customWidth="1"/>
-    <col min="6404" max="6404" width="9.28515625" customWidth="1"/>
+    <col min="6403" max="6403" width="6.1640625" customWidth="1"/>
+    <col min="6404" max="6404" width="9.33203125" customWidth="1"/>
     <col min="6405" max="6405" width="9" customWidth="1"/>
-    <col min="6406" max="6406" width="11.28515625" customWidth="1"/>
-    <col min="6407" max="6407" width="17.85546875" customWidth="1"/>
-    <col min="6654" max="6654" width="19.85546875" customWidth="1"/>
-    <col min="6655" max="6655" width="9.140625" customWidth="1"/>
-    <col min="6656" max="6656" width="12.7109375" customWidth="1"/>
-    <col min="6657" max="6657" width="14.85546875" customWidth="1"/>
+    <col min="6406" max="6406" width="11.33203125" customWidth="1"/>
+    <col min="6407" max="6407" width="17.83203125" customWidth="1"/>
+    <col min="6654" max="6654" width="19.83203125" customWidth="1"/>
+    <col min="6655" max="6655" width="9.1640625" customWidth="1"/>
+    <col min="6656" max="6656" width="12.6640625" customWidth="1"/>
+    <col min="6657" max="6657" width="14.83203125" customWidth="1"/>
     <col min="6658" max="6658" width="10" customWidth="1"/>
-    <col min="6659" max="6659" width="6.140625" customWidth="1"/>
-    <col min="6660" max="6660" width="9.28515625" customWidth="1"/>
+    <col min="6659" max="6659" width="6.1640625" customWidth="1"/>
+    <col min="6660" max="6660" width="9.33203125" customWidth="1"/>
     <col min="6661" max="6661" width="9" customWidth="1"/>
-    <col min="6662" max="6662" width="11.28515625" customWidth="1"/>
-    <col min="6663" max="6663" width="17.85546875" customWidth="1"/>
-    <col min="6910" max="6910" width="19.85546875" customWidth="1"/>
-    <col min="6911" max="6911" width="9.140625" customWidth="1"/>
-    <col min="6912" max="6912" width="12.7109375" customWidth="1"/>
-    <col min="6913" max="6913" width="14.85546875" customWidth="1"/>
+    <col min="6662" max="6662" width="11.33203125" customWidth="1"/>
+    <col min="6663" max="6663" width="17.83203125" customWidth="1"/>
+    <col min="6910" max="6910" width="19.83203125" customWidth="1"/>
+    <col min="6911" max="6911" width="9.1640625" customWidth="1"/>
+    <col min="6912" max="6912" width="12.6640625" customWidth="1"/>
+    <col min="6913" max="6913" width="14.83203125" customWidth="1"/>
     <col min="6914" max="6914" width="10" customWidth="1"/>
-    <col min="6915" max="6915" width="6.140625" customWidth="1"/>
-    <col min="6916" max="6916" width="9.28515625" customWidth="1"/>
+    <col min="6915" max="6915" width="6.1640625" customWidth="1"/>
+    <col min="6916" max="6916" width="9.33203125" customWidth="1"/>
     <col min="6917" max="6917" width="9" customWidth="1"/>
-    <col min="6918" max="6918" width="11.28515625" customWidth="1"/>
-    <col min="6919" max="6919" width="17.85546875" customWidth="1"/>
-    <col min="7166" max="7166" width="19.85546875" customWidth="1"/>
-    <col min="7167" max="7167" width="9.140625" customWidth="1"/>
-    <col min="7168" max="7168" width="12.7109375" customWidth="1"/>
-    <col min="7169" max="7169" width="14.85546875" customWidth="1"/>
+    <col min="6918" max="6918" width="11.33203125" customWidth="1"/>
+    <col min="6919" max="6919" width="17.83203125" customWidth="1"/>
+    <col min="7166" max="7166" width="19.83203125" customWidth="1"/>
+    <col min="7167" max="7167" width="9.1640625" customWidth="1"/>
+    <col min="7168" max="7168" width="12.6640625" customWidth="1"/>
+    <col min="7169" max="7169" width="14.83203125" customWidth="1"/>
     <col min="7170" max="7170" width="10" customWidth="1"/>
-    <col min="7171" max="7171" width="6.140625" customWidth="1"/>
-    <col min="7172" max="7172" width="9.28515625" customWidth="1"/>
+    <col min="7171" max="7171" width="6.1640625" customWidth="1"/>
+    <col min="7172" max="7172" width="9.33203125" customWidth="1"/>
     <col min="7173" max="7173" width="9" customWidth="1"/>
-    <col min="7174" max="7174" width="11.28515625" customWidth="1"/>
-    <col min="7175" max="7175" width="17.85546875" customWidth="1"/>
-    <col min="7422" max="7422" width="19.85546875" customWidth="1"/>
-    <col min="7423" max="7423" width="9.140625" customWidth="1"/>
-    <col min="7424" max="7424" width="12.7109375" customWidth="1"/>
-    <col min="7425" max="7425" width="14.85546875" customWidth="1"/>
+    <col min="7174" max="7174" width="11.33203125" customWidth="1"/>
+    <col min="7175" max="7175" width="17.83203125" customWidth="1"/>
+    <col min="7422" max="7422" width="19.83203125" customWidth="1"/>
+    <col min="7423" max="7423" width="9.1640625" customWidth="1"/>
+    <col min="7424" max="7424" width="12.6640625" customWidth="1"/>
+    <col min="7425" max="7425" width="14.83203125" customWidth="1"/>
     <col min="7426" max="7426" width="10" customWidth="1"/>
-    <col min="7427" max="7427" width="6.140625" customWidth="1"/>
-    <col min="7428" max="7428" width="9.28515625" customWidth="1"/>
+    <col min="7427" max="7427" width="6.1640625" customWidth="1"/>
+    <col min="7428" max="7428" width="9.33203125" customWidth="1"/>
     <col min="7429" max="7429" width="9" customWidth="1"/>
-    <col min="7430" max="7430" width="11.28515625" customWidth="1"/>
-    <col min="7431" max="7431" width="17.85546875" customWidth="1"/>
-    <col min="7678" max="7678" width="19.85546875" customWidth="1"/>
-    <col min="7679" max="7679" width="9.140625" customWidth="1"/>
-    <col min="7680" max="7680" width="12.7109375" customWidth="1"/>
-    <col min="7681" max="7681" width="14.85546875" customWidth="1"/>
+    <col min="7430" max="7430" width="11.33203125" customWidth="1"/>
+    <col min="7431" max="7431" width="17.83203125" customWidth="1"/>
+    <col min="7678" max="7678" width="19.83203125" customWidth="1"/>
+    <col min="7679" max="7679" width="9.1640625" customWidth="1"/>
+    <col min="7680" max="7680" width="12.6640625" customWidth="1"/>
+    <col min="7681" max="7681" width="14.83203125" customWidth="1"/>
     <col min="7682" max="7682" width="10" customWidth="1"/>
-    <col min="7683" max="7683" width="6.140625" customWidth="1"/>
-    <col min="7684" max="7684" width="9.28515625" customWidth="1"/>
+    <col min="7683" max="7683" width="6.1640625" customWidth="1"/>
+    <col min="7684" max="7684" width="9.33203125" customWidth="1"/>
     <col min="7685" max="7685" width="9" customWidth="1"/>
-    <col min="7686" max="7686" width="11.28515625" customWidth="1"/>
-    <col min="7687" max="7687" width="17.85546875" customWidth="1"/>
-    <col min="7934" max="7934" width="19.85546875" customWidth="1"/>
-    <col min="7935" max="7935" width="9.140625" customWidth="1"/>
-    <col min="7936" max="7936" width="12.7109375" customWidth="1"/>
-    <col min="7937" max="7937" width="14.85546875" customWidth="1"/>
+    <col min="7686" max="7686" width="11.33203125" customWidth="1"/>
+    <col min="7687" max="7687" width="17.83203125" customWidth="1"/>
+    <col min="7934" max="7934" width="19.83203125" customWidth="1"/>
+    <col min="7935" max="7935" width="9.1640625" customWidth="1"/>
+    <col min="7936" max="7936" width="12.6640625" customWidth="1"/>
+    <col min="7937" max="7937" width="14.83203125" customWidth="1"/>
     <col min="7938" max="7938" width="10" customWidth="1"/>
-    <col min="7939" max="7939" width="6.140625" customWidth="1"/>
-    <col min="7940" max="7940" width="9.28515625" customWidth="1"/>
+    <col min="7939" max="7939" width="6.1640625" customWidth="1"/>
+    <col min="7940" max="7940" width="9.33203125" customWidth="1"/>
     <col min="7941" max="7941" width="9" customWidth="1"/>
-    <col min="7942" max="7942" width="11.28515625" customWidth="1"/>
-    <col min="7943" max="7943" width="17.85546875" customWidth="1"/>
-    <col min="8190" max="8190" width="19.85546875" customWidth="1"/>
-    <col min="8191" max="8191" width="9.140625" customWidth="1"/>
-    <col min="8192" max="8192" width="12.7109375" customWidth="1"/>
-    <col min="8193" max="8193" width="14.85546875" customWidth="1"/>
+    <col min="7942" max="7942" width="11.33203125" customWidth="1"/>
+    <col min="7943" max="7943" width="17.83203125" customWidth="1"/>
+    <col min="8190" max="8190" width="19.83203125" customWidth="1"/>
+    <col min="8191" max="8191" width="9.1640625" customWidth="1"/>
+    <col min="8192" max="8192" width="12.6640625" customWidth="1"/>
+    <col min="8193" max="8193" width="14.83203125" customWidth="1"/>
     <col min="8194" max="8194" width="10" customWidth="1"/>
-    <col min="8195" max="8195" width="6.140625" customWidth="1"/>
-    <col min="8196" max="8196" width="9.28515625" customWidth="1"/>
+    <col min="8195" max="8195" width="6.1640625" customWidth="1"/>
+    <col min="8196" max="8196" width="9.33203125" customWidth="1"/>
     <col min="8197" max="8197" width="9" customWidth="1"/>
-    <col min="8198" max="8198" width="11.28515625" customWidth="1"/>
-    <col min="8199" max="8199" width="17.85546875" customWidth="1"/>
-    <col min="8446" max="8446" width="19.85546875" customWidth="1"/>
-    <col min="8447" max="8447" width="9.140625" customWidth="1"/>
-    <col min="8448" max="8448" width="12.7109375" customWidth="1"/>
-    <col min="8449" max="8449" width="14.85546875" customWidth="1"/>
+    <col min="8198" max="8198" width="11.33203125" customWidth="1"/>
+    <col min="8199" max="8199" width="17.83203125" customWidth="1"/>
+    <col min="8446" max="8446" width="19.83203125" customWidth="1"/>
+    <col min="8447" max="8447" width="9.1640625" customWidth="1"/>
+    <col min="8448" max="8448" width="12.6640625" customWidth="1"/>
+    <col min="8449" max="8449" width="14.83203125" customWidth="1"/>
     <col min="8450" max="8450" width="10" customWidth="1"/>
-    <col min="8451" max="8451" width="6.140625" customWidth="1"/>
-    <col min="8452" max="8452" width="9.28515625" customWidth="1"/>
+    <col min="8451" max="8451" width="6.1640625" customWidth="1"/>
+    <col min="8452" max="8452" width="9.33203125" customWidth="1"/>
     <col min="8453" max="8453" width="9" customWidth="1"/>
-    <col min="8454" max="8454" width="11.28515625" customWidth="1"/>
-    <col min="8455" max="8455" width="17.85546875" customWidth="1"/>
-    <col min="8702" max="8702" width="19.85546875" customWidth="1"/>
-    <col min="8703" max="8703" width="9.140625" customWidth="1"/>
-    <col min="8704" max="8704" width="12.7109375" customWidth="1"/>
-    <col min="8705" max="8705" width="14.85546875" customWidth="1"/>
+    <col min="8454" max="8454" width="11.33203125" customWidth="1"/>
+    <col min="8455" max="8455" width="17.83203125" customWidth="1"/>
+    <col min="8702" max="8702" width="19.83203125" customWidth="1"/>
+    <col min="8703" max="8703" width="9.1640625" customWidth="1"/>
+    <col min="8704" max="8704" width="12.6640625" customWidth="1"/>
+    <col min="8705" max="8705" width="14.83203125" customWidth="1"/>
     <col min="8706" max="8706" width="10" customWidth="1"/>
-    <col min="8707" max="8707" width="6.140625" customWidth="1"/>
-    <col min="8708" max="8708" width="9.28515625" customWidth="1"/>
+    <col min="8707" max="8707" width="6.1640625" customWidth="1"/>
+    <col min="8708" max="8708" width="9.33203125" customWidth="1"/>
     <col min="8709" max="8709" width="9" customWidth="1"/>
-    <col min="8710" max="8710" width="11.28515625" customWidth="1"/>
-    <col min="8711" max="8711" width="17.85546875" customWidth="1"/>
-    <col min="8958" max="8958" width="19.85546875" customWidth="1"/>
-    <col min="8959" max="8959" width="9.140625" customWidth="1"/>
-    <col min="8960" max="8960" width="12.7109375" customWidth="1"/>
-    <col min="8961" max="8961" width="14.85546875" customWidth="1"/>
+    <col min="8710" max="8710" width="11.33203125" customWidth="1"/>
+    <col min="8711" max="8711" width="17.83203125" customWidth="1"/>
+    <col min="8958" max="8958" width="19.83203125" customWidth="1"/>
+    <col min="8959" max="8959" width="9.1640625" customWidth="1"/>
+    <col min="8960" max="8960" width="12.6640625" customWidth="1"/>
+    <col min="8961" max="8961" width="14.83203125" customWidth="1"/>
     <col min="8962" max="8962" width="10" customWidth="1"/>
-    <col min="8963" max="8963" width="6.140625" customWidth="1"/>
-    <col min="8964" max="8964" width="9.28515625" customWidth="1"/>
+    <col min="8963" max="8963" width="6.1640625" customWidth="1"/>
+    <col min="8964" max="8964" width="9.33203125" customWidth="1"/>
     <col min="8965" max="8965" width="9" customWidth="1"/>
-    <col min="8966" max="8966" width="11.28515625" customWidth="1"/>
-    <col min="8967" max="8967" width="17.85546875" customWidth="1"/>
-    <col min="9214" max="9214" width="19.85546875" customWidth="1"/>
-    <col min="9215" max="9215" width="9.140625" customWidth="1"/>
-    <col min="9216" max="9216" width="12.7109375" customWidth="1"/>
-    <col min="9217" max="9217" width="14.85546875" customWidth="1"/>
+    <col min="8966" max="8966" width="11.33203125" customWidth="1"/>
+    <col min="8967" max="8967" width="17.83203125" customWidth="1"/>
+    <col min="9214" max="9214" width="19.83203125" customWidth="1"/>
+    <col min="9215" max="9215" width="9.1640625" customWidth="1"/>
+    <col min="9216" max="9216" width="12.6640625" customWidth="1"/>
+    <col min="9217" max="9217" width="14.83203125" customWidth="1"/>
     <col min="9218" max="9218" width="10" customWidth="1"/>
-    <col min="9219" max="9219" width="6.140625" customWidth="1"/>
-    <col min="9220" max="9220" width="9.28515625" customWidth="1"/>
+    <col min="9219" max="9219" width="6.1640625" customWidth="1"/>
+    <col min="9220" max="9220" width="9.33203125" customWidth="1"/>
     <col min="9221" max="9221" width="9" customWidth="1"/>
-    <col min="9222" max="9222" width="11.28515625" customWidth="1"/>
-    <col min="9223" max="9223" width="17.85546875" customWidth="1"/>
-    <col min="9470" max="9470" width="19.85546875" customWidth="1"/>
-    <col min="9471" max="9471" width="9.140625" customWidth="1"/>
-    <col min="9472" max="9472" width="12.7109375" customWidth="1"/>
-    <col min="9473" max="9473" width="14.85546875" customWidth="1"/>
+    <col min="9222" max="9222" width="11.33203125" customWidth="1"/>
+    <col min="9223" max="9223" width="17.83203125" customWidth="1"/>
+    <col min="9470" max="9470" width="19.83203125" customWidth="1"/>
+    <col min="9471" max="9471" width="9.1640625" customWidth="1"/>
+    <col min="9472" max="9472" width="12.6640625" customWidth="1"/>
+    <col min="9473" max="9473" width="14.83203125" customWidth="1"/>
     <col min="9474" max="9474" width="10" customWidth="1"/>
-    <col min="9475" max="9475" width="6.140625" customWidth="1"/>
-    <col min="9476" max="9476" width="9.28515625" customWidth="1"/>
+    <col min="9475" max="9475" width="6.1640625" customWidth="1"/>
+    <col min="9476" max="9476" width="9.33203125" customWidth="1"/>
     <col min="9477" max="9477" width="9" customWidth="1"/>
-    <col min="9478" max="9478" width="11.28515625" customWidth="1"/>
-    <col min="9479" max="9479" width="17.85546875" customWidth="1"/>
-    <col min="9726" max="9726" width="19.85546875" customWidth="1"/>
-    <col min="9727" max="9727" width="9.140625" customWidth="1"/>
-    <col min="9728" max="9728" width="12.7109375" customWidth="1"/>
-    <col min="9729" max="9729" width="14.85546875" customWidth="1"/>
+    <col min="9478" max="9478" width="11.33203125" customWidth="1"/>
+    <col min="9479" max="9479" width="17.83203125" customWidth="1"/>
+    <col min="9726" max="9726" width="19.83203125" customWidth="1"/>
+    <col min="9727" max="9727" width="9.1640625" customWidth="1"/>
+    <col min="9728" max="9728" width="12.6640625" customWidth="1"/>
+    <col min="9729" max="9729" width="14.83203125" customWidth="1"/>
     <col min="9730" max="9730" width="10" customWidth="1"/>
-    <col min="9731" max="9731" width="6.140625" customWidth="1"/>
-    <col min="9732" max="9732" width="9.28515625" customWidth="1"/>
+    <col min="9731" max="9731" width="6.1640625" customWidth="1"/>
+    <col min="9732" max="9732" width="9.33203125" customWidth="1"/>
     <col min="9733" max="9733" width="9" customWidth="1"/>
-    <col min="9734" max="9734" width="11.28515625" customWidth="1"/>
-    <col min="9735" max="9735" width="17.85546875" customWidth="1"/>
-    <col min="9982" max="9982" width="19.85546875" customWidth="1"/>
-    <col min="9983" max="9983" width="9.140625" customWidth="1"/>
-    <col min="9984" max="9984" width="12.7109375" customWidth="1"/>
-    <col min="9985" max="9985" width="14.85546875" customWidth="1"/>
+    <col min="9734" max="9734" width="11.33203125" customWidth="1"/>
+    <col min="9735" max="9735" width="17.83203125" customWidth="1"/>
+    <col min="9982" max="9982" width="19.83203125" customWidth="1"/>
+    <col min="9983" max="9983" width="9.1640625" customWidth="1"/>
+    <col min="9984" max="9984" width="12.6640625" customWidth="1"/>
+    <col min="9985" max="9985" width="14.83203125" customWidth="1"/>
     <col min="9986" max="9986" width="10" customWidth="1"/>
-    <col min="9987" max="9987" width="6.140625" customWidth="1"/>
-    <col min="9988" max="9988" width="9.28515625" customWidth="1"/>
+    <col min="9987" max="9987" width="6.1640625" customWidth="1"/>
+    <col min="9988" max="9988" width="9.33203125" customWidth="1"/>
     <col min="9989" max="9989" width="9" customWidth="1"/>
-    <col min="9990" max="9990" width="11.28515625" customWidth="1"/>
-    <col min="9991" max="9991" width="17.85546875" customWidth="1"/>
-    <col min="10238" max="10238" width="19.85546875" customWidth="1"/>
-    <col min="10239" max="10239" width="9.140625" customWidth="1"/>
-    <col min="10240" max="10240" width="12.7109375" customWidth="1"/>
-    <col min="10241" max="10241" width="14.85546875" customWidth="1"/>
+    <col min="9990" max="9990" width="11.33203125" customWidth="1"/>
+    <col min="9991" max="9991" width="17.83203125" customWidth="1"/>
+    <col min="10238" max="10238" width="19.83203125" customWidth="1"/>
+    <col min="10239" max="10239" width="9.1640625" customWidth="1"/>
+    <col min="10240" max="10240" width="12.6640625" customWidth="1"/>
+    <col min="10241" max="10241" width="14.83203125" customWidth="1"/>
     <col min="10242" max="10242" width="10" customWidth="1"/>
-    <col min="10243" max="10243" width="6.140625" customWidth="1"/>
-    <col min="10244" max="10244" width="9.28515625" customWidth="1"/>
+    <col min="10243" max="10243" width="6.1640625" customWidth="1"/>
+    <col min="10244" max="10244" width="9.33203125" customWidth="1"/>
     <col min="10245" max="10245" width="9" customWidth="1"/>
-    <col min="10246" max="10246" width="11.28515625" customWidth="1"/>
-    <col min="10247" max="10247" width="17.85546875" customWidth="1"/>
-    <col min="10494" max="10494" width="19.85546875" customWidth="1"/>
-    <col min="10495" max="10495" width="9.140625" customWidth="1"/>
-    <col min="10496" max="10496" width="12.7109375" customWidth="1"/>
-    <col min="10497" max="10497" width="14.85546875" customWidth="1"/>
+    <col min="10246" max="10246" width="11.33203125" customWidth="1"/>
+    <col min="10247" max="10247" width="17.83203125" customWidth="1"/>
+    <col min="10494" max="10494" width="19.83203125" customWidth="1"/>
+    <col min="10495" max="10495" width="9.1640625" customWidth="1"/>
+    <col min="10496" max="10496" width="12.6640625" customWidth="1"/>
+    <col min="10497" max="10497" width="14.83203125" customWidth="1"/>
     <col min="10498" max="10498" width="10" customWidth="1"/>
-    <col min="10499" max="10499" width="6.140625" customWidth="1"/>
-    <col min="10500" max="10500" width="9.28515625" customWidth="1"/>
+    <col min="10499" max="10499" width="6.1640625" customWidth="1"/>
+    <col min="10500" max="10500" width="9.33203125" customWidth="1"/>
     <col min="10501" max="10501" width="9" customWidth="1"/>
-    <col min="10502" max="10502" width="11.28515625" customWidth="1"/>
-    <col min="10503" max="10503" width="17.85546875" customWidth="1"/>
-    <col min="10750" max="10750" width="19.85546875" customWidth="1"/>
-    <col min="10751" max="10751" width="9.140625" customWidth="1"/>
-    <col min="10752" max="10752" width="12.7109375" customWidth="1"/>
-    <col min="10753" max="10753" width="14.85546875" customWidth="1"/>
+    <col min="10502" max="10502" width="11.33203125" customWidth="1"/>
+    <col min="10503" max="10503" width="17.83203125" customWidth="1"/>
+    <col min="10750" max="10750" width="19.83203125" customWidth="1"/>
+    <col min="10751" max="10751" width="9.1640625" customWidth="1"/>
+    <col min="10752" max="10752" width="12.6640625" customWidth="1"/>
+    <col min="10753" max="10753" width="14.83203125" customWidth="1"/>
     <col min="10754" max="10754" width="10" customWidth="1"/>
-    <col min="10755" max="10755" width="6.140625" customWidth="1"/>
-    <col min="10756" max="10756" width="9.28515625" customWidth="1"/>
+    <col min="10755" max="10755" width="6.1640625" customWidth="1"/>
+    <col min="10756" max="10756" width="9.33203125" customWidth="1"/>
     <col min="10757" max="10757" width="9" customWidth="1"/>
-    <col min="10758" max="10758" width="11.28515625" customWidth="1"/>
-    <col min="10759" max="10759" width="17.85546875" customWidth="1"/>
-    <col min="11006" max="11006" width="19.85546875" customWidth="1"/>
-    <col min="11007" max="11007" width="9.140625" customWidth="1"/>
-    <col min="11008" max="11008" width="12.7109375" customWidth="1"/>
-    <col min="11009" max="11009" width="14.85546875" customWidth="1"/>
+    <col min="10758" max="10758" width="11.33203125" customWidth="1"/>
+    <col min="10759" max="10759" width="17.83203125" customWidth="1"/>
+    <col min="11006" max="11006" width="19.83203125" customWidth="1"/>
+    <col min="11007" max="11007" width="9.1640625" customWidth="1"/>
+    <col min="11008" max="11008" width="12.6640625" customWidth="1"/>
+    <col min="11009" max="11009" width="14.83203125" customWidth="1"/>
     <col min="11010" max="11010" width="10" customWidth="1"/>
-    <col min="11011" max="11011" width="6.140625" customWidth="1"/>
-    <col min="11012" max="11012" width="9.28515625" customWidth="1"/>
+    <col min="11011" max="11011" width="6.1640625" customWidth="1"/>
+    <col min="11012" max="11012" width="9.33203125" customWidth="1"/>
     <col min="11013" max="11013" width="9" customWidth="1"/>
-    <col min="11014" max="11014" width="11.28515625" customWidth="1"/>
-    <col min="11015" max="11015" width="17.85546875" customWidth="1"/>
-    <col min="11262" max="11262" width="19.85546875" customWidth="1"/>
-    <col min="11263" max="11263" width="9.140625" customWidth="1"/>
-    <col min="11264" max="11264" width="12.7109375" customWidth="1"/>
-    <col min="11265" max="11265" width="14.85546875" customWidth="1"/>
+    <col min="11014" max="11014" width="11.33203125" customWidth="1"/>
+    <col min="11015" max="11015" width="17.83203125" customWidth="1"/>
+    <col min="11262" max="11262" width="19.83203125" customWidth="1"/>
+    <col min="11263" max="11263" width="9.1640625" customWidth="1"/>
+    <col min="11264" max="11264" width="12.6640625" customWidth="1"/>
+    <col min="11265" max="11265" width="14.83203125" customWidth="1"/>
     <col min="11266" max="11266" width="10" customWidth="1"/>
-    <col min="11267" max="11267" width="6.140625" customWidth="1"/>
-    <col min="11268" max="11268" width="9.28515625" customWidth="1"/>
+    <col min="11267" max="11267" width="6.1640625" customWidth="1"/>
+    <col min="11268" max="11268" width="9.33203125" customWidth="1"/>
     <col min="11269" max="11269" width="9" customWidth="1"/>
-    <col min="11270" max="11270" width="11.28515625" customWidth="1"/>
-    <col min="11271" max="11271" width="17.85546875" customWidth="1"/>
-    <col min="11518" max="11518" width="19.85546875" customWidth="1"/>
-    <col min="11519" max="11519" width="9.140625" customWidth="1"/>
-    <col min="11520" max="11520" width="12.7109375" customWidth="1"/>
-    <col min="11521" max="11521" width="14.85546875" customWidth="1"/>
+    <col min="11270" max="11270" width="11.33203125" customWidth="1"/>
+    <col min="11271" max="11271" width="17.83203125" customWidth="1"/>
+    <col min="11518" max="11518" width="19.83203125" customWidth="1"/>
+    <col min="11519" max="11519" width="9.1640625" customWidth="1"/>
+    <col min="11520" max="11520" width="12.6640625" customWidth="1"/>
+    <col min="11521" max="11521" width="14.83203125" customWidth="1"/>
     <col min="11522" max="11522" width="10" customWidth="1"/>
-    <col min="11523" max="11523" width="6.140625" customWidth="1"/>
-    <col min="11524" max="11524" width="9.28515625" customWidth="1"/>
+    <col min="11523" max="11523" width="6.1640625" customWidth="1"/>
+    <col min="11524" max="11524" width="9.33203125" customWidth="1"/>
     <col min="11525" max="11525" width="9" customWidth="1"/>
-    <col min="11526" max="11526" width="11.28515625" customWidth="1"/>
-    <col min="11527" max="11527" width="17.85546875" customWidth="1"/>
-    <col min="11774" max="11774" width="19.85546875" customWidth="1"/>
-    <col min="11775" max="11775" width="9.140625" customWidth="1"/>
-    <col min="11776" max="11776" width="12.7109375" customWidth="1"/>
-    <col min="11777" max="11777" width="14.85546875" customWidth="1"/>
+    <col min="11526" max="11526" width="11.33203125" customWidth="1"/>
+    <col min="11527" max="11527" width="17.83203125" customWidth="1"/>
+    <col min="11774" max="11774" width="19.83203125" customWidth="1"/>
+    <col min="11775" max="11775" width="9.1640625" customWidth="1"/>
+    <col min="11776" max="11776" width="12.6640625" customWidth="1"/>
+    <col min="11777" max="11777" width="14.83203125" customWidth="1"/>
     <col min="11778" max="11778" width="10" customWidth="1"/>
-    <col min="11779" max="11779" width="6.140625" customWidth="1"/>
-    <col min="11780" max="11780" width="9.28515625" customWidth="1"/>
+    <col min="11779" max="11779" width="6.1640625" customWidth="1"/>
+    <col min="11780" max="11780" width="9.33203125" customWidth="1"/>
     <col min="11781" max="11781" width="9" customWidth="1"/>
-    <col min="11782" max="11782" width="11.28515625" customWidth="1"/>
-    <col min="11783" max="11783" width="17.85546875" customWidth="1"/>
-    <col min="12030" max="12030" width="19.85546875" customWidth="1"/>
-    <col min="12031" max="12031" width="9.140625" customWidth="1"/>
-    <col min="12032" max="12032" width="12.7109375" customWidth="1"/>
-    <col min="12033" max="12033" width="14.85546875" customWidth="1"/>
+    <col min="11782" max="11782" width="11.33203125" customWidth="1"/>
+    <col min="11783" max="11783" width="17.83203125" customWidth="1"/>
+    <col min="12030" max="12030" width="19.83203125" customWidth="1"/>
+    <col min="12031" max="12031" width="9.1640625" customWidth="1"/>
+    <col min="12032" max="12032" width="12.6640625" customWidth="1"/>
+    <col min="12033" max="12033" width="14.83203125" customWidth="1"/>
     <col min="12034" max="12034" width="10" customWidth="1"/>
-    <col min="12035" max="12035" width="6.140625" customWidth="1"/>
-    <col min="12036" max="12036" width="9.28515625" customWidth="1"/>
+    <col min="12035" max="12035" width="6.1640625" customWidth="1"/>
+    <col min="12036" max="12036" width="9.33203125" customWidth="1"/>
     <col min="12037" max="12037" width="9" customWidth="1"/>
-    <col min="12038" max="12038" width="11.28515625" customWidth="1"/>
-    <col min="12039" max="12039" width="17.85546875" customWidth="1"/>
-    <col min="12286" max="12286" width="19.85546875" customWidth="1"/>
-    <col min="12287" max="12287" width="9.140625" customWidth="1"/>
-    <col min="12288" max="12288" width="12.7109375" customWidth="1"/>
-    <col min="12289" max="12289" width="14.85546875" customWidth="1"/>
+    <col min="12038" max="12038" width="11.33203125" customWidth="1"/>
+    <col min="12039" max="12039" width="17.83203125" customWidth="1"/>
+    <col min="12286" max="12286" width="19.83203125" customWidth="1"/>
+    <col min="12287" max="12287" width="9.1640625" customWidth="1"/>
+    <col min="12288" max="12288" width="12.6640625" customWidth="1"/>
+    <col min="12289" max="12289" width="14.83203125" customWidth="1"/>
     <col min="12290" max="12290" width="10" customWidth="1"/>
-    <col min="12291" max="12291" width="6.140625" customWidth="1"/>
-    <col min="12292" max="12292" width="9.28515625" customWidth="1"/>
+    <col min="12291" max="12291" width="6.1640625" customWidth="1"/>
+    <col min="12292" max="12292" width="9.33203125" customWidth="1"/>
     <col min="12293" max="12293" width="9" customWidth="1"/>
-    <col min="12294" max="12294" width="11.28515625" customWidth="1"/>
-    <col min="12295" max="12295" width="17.85546875" customWidth="1"/>
-    <col min="12542" max="12542" width="19.85546875" customWidth="1"/>
-    <col min="12543" max="12543" width="9.140625" customWidth="1"/>
-    <col min="12544" max="12544" width="12.7109375" customWidth="1"/>
-    <col min="12545" max="12545" width="14.85546875" customWidth="1"/>
+    <col min="12294" max="12294" width="11.33203125" customWidth="1"/>
+    <col min="12295" max="12295" width="17.83203125" customWidth="1"/>
+    <col min="12542" max="12542" width="19.83203125" customWidth="1"/>
+    <col min="12543" max="12543" width="9.1640625" customWidth="1"/>
+    <col min="12544" max="12544" width="12.6640625" customWidth="1"/>
+    <col min="12545" max="12545" width="14.83203125" customWidth="1"/>
     <col min="12546" max="12546" width="10" customWidth="1"/>
-    <col min="12547" max="12547" width="6.140625" customWidth="1"/>
-    <col min="12548" max="12548" width="9.28515625" customWidth="1"/>
+    <col min="12547" max="12547" width="6.1640625" customWidth="1"/>
+    <col min="12548" max="12548" width="9.33203125" customWidth="1"/>
     <col min="12549" max="12549" width="9" customWidth="1"/>
-    <col min="12550" max="12550" width="11.28515625" customWidth="1"/>
-    <col min="12551" max="12551" width="17.85546875" customWidth="1"/>
-    <col min="12798" max="12798" width="19.85546875" customWidth="1"/>
-    <col min="12799" max="12799" width="9.140625" customWidth="1"/>
-    <col min="12800" max="12800" width="12.7109375" customWidth="1"/>
-    <col min="12801" max="12801" width="14.85546875" customWidth="1"/>
+    <col min="12550" max="12550" width="11.33203125" customWidth="1"/>
+    <col min="12551" max="12551" width="17.83203125" customWidth="1"/>
+    <col min="12798" max="12798" width="19.83203125" customWidth="1"/>
+    <col min="12799" max="12799" width="9.1640625" customWidth="1"/>
+    <col min="12800" max="12800" width="12.6640625" customWidth="1"/>
+    <col min="12801" max="12801" width="14.83203125" customWidth="1"/>
     <col min="12802" max="12802" width="10" customWidth="1"/>
-    <col min="12803" max="12803" width="6.140625" customWidth="1"/>
-    <col min="12804" max="12804" width="9.28515625" customWidth="1"/>
+    <col min="12803" max="12803" width="6.1640625" customWidth="1"/>
+    <col min="12804" max="12804" width="9.33203125" customWidth="1"/>
     <col min="12805" max="12805" width="9" customWidth="1"/>
-    <col min="12806" max="12806" width="11.28515625" customWidth="1"/>
-    <col min="12807" max="12807" width="17.85546875" customWidth="1"/>
-    <col min="13054" max="13054" width="19.85546875" customWidth="1"/>
-    <col min="13055" max="13055" width="9.140625" customWidth="1"/>
-    <col min="13056" max="13056" width="12.7109375" customWidth="1"/>
-    <col min="13057" max="13057" width="14.85546875" customWidth="1"/>
+    <col min="12806" max="12806" width="11.33203125" customWidth="1"/>
+    <col min="12807" max="12807" width="17.83203125" customWidth="1"/>
+    <col min="13054" max="13054" width="19.83203125" customWidth="1"/>
+    <col min="13055" max="13055" width="9.1640625" customWidth="1"/>
+    <col min="13056" max="13056" width="12.6640625" customWidth="1"/>
+    <col min="13057" max="13057" width="14.83203125" customWidth="1"/>
     <col min="13058" max="13058" width="10" customWidth="1"/>
-    <col min="13059" max="13059" width="6.140625" customWidth="1"/>
-    <col min="13060" max="13060" width="9.28515625" customWidth="1"/>
+    <col min="13059" max="13059" width="6.1640625" customWidth="1"/>
+    <col min="13060" max="13060" width="9.33203125" customWidth="1"/>
     <col min="13061" max="13061" width="9" customWidth="1"/>
-    <col min="13062" max="13062" width="11.28515625" customWidth="1"/>
-    <col min="13063" max="13063" width="17.85546875" customWidth="1"/>
-    <col min="13310" max="13310" width="19.85546875" customWidth="1"/>
-    <col min="13311" max="13311" width="9.140625" customWidth="1"/>
-    <col min="13312" max="13312" width="12.7109375" customWidth="1"/>
-    <col min="13313" max="13313" width="14.85546875" customWidth="1"/>
+    <col min="13062" max="13062" width="11.33203125" customWidth="1"/>
+    <col min="13063" max="13063" width="17.83203125" customWidth="1"/>
+    <col min="13310" max="13310" width="19.83203125" customWidth="1"/>
+    <col min="13311" max="13311" width="9.1640625" customWidth="1"/>
+    <col min="13312" max="13312" width="12.6640625" customWidth="1"/>
+    <col min="13313" max="13313" width="14.83203125" customWidth="1"/>
     <col min="13314" max="13314" width="10" customWidth="1"/>
-    <col min="13315" max="13315" width="6.140625" customWidth="1"/>
-    <col min="13316" max="13316" width="9.28515625" customWidth="1"/>
+    <col min="13315" max="13315" width="6.1640625" customWidth="1"/>
+    <col min="13316" max="13316" width="9.33203125" customWidth="1"/>
     <col min="13317" max="13317" width="9" customWidth="1"/>
-    <col min="13318" max="13318" width="11.28515625" customWidth="1"/>
-    <col min="13319" max="13319" width="17.85546875" customWidth="1"/>
-    <col min="13566" max="13566" width="19.85546875" customWidth="1"/>
-    <col min="13567" max="13567" width="9.140625" customWidth="1"/>
-    <col min="13568" max="13568" width="12.7109375" customWidth="1"/>
-    <col min="13569" max="13569" width="14.85546875" customWidth="1"/>
+    <col min="13318" max="13318" width="11.33203125" customWidth="1"/>
+    <col min="13319" max="13319" width="17.83203125" customWidth="1"/>
+    <col min="13566" max="13566" width="19.83203125" customWidth="1"/>
+    <col min="13567" max="13567" width="9.1640625" customWidth="1"/>
+    <col min="13568" max="13568" width="12.6640625" customWidth="1"/>
+    <col min="13569" max="13569" width="14.83203125" customWidth="1"/>
     <col min="13570" max="13570" width="10" customWidth="1"/>
-    <col min="13571" max="13571" width="6.140625" customWidth="1"/>
-    <col min="13572" max="13572" width="9.28515625" customWidth="1"/>
+    <col min="13571" max="13571" width="6.1640625" customWidth="1"/>
+    <col min="13572" max="13572" width="9.33203125" customWidth="1"/>
     <col min="13573" max="13573" width="9" customWidth="1"/>
-    <col min="13574" max="13574" width="11.28515625" customWidth="1"/>
-    <col min="13575" max="13575" width="17.85546875" customWidth="1"/>
-    <col min="13822" max="13822" width="19.85546875" customWidth="1"/>
-    <col min="13823" max="13823" width="9.140625" customWidth="1"/>
-    <col min="13824" max="13824" width="12.7109375" customWidth="1"/>
-    <col min="13825" max="13825" width="14.85546875" customWidth="1"/>
+    <col min="13574" max="13574" width="11.33203125" customWidth="1"/>
+    <col min="13575" max="13575" width="17.83203125" customWidth="1"/>
+    <col min="13822" max="13822" width="19.83203125" customWidth="1"/>
+    <col min="13823" max="13823" width="9.1640625" customWidth="1"/>
+    <col min="13824" max="13824" width="12.6640625" customWidth="1"/>
+    <col min="13825" max="13825" width="14.83203125" customWidth="1"/>
     <col min="13826" max="13826" width="10" customWidth="1"/>
-    <col min="13827" max="13827" width="6.140625" customWidth="1"/>
-    <col min="13828" max="13828" width="9.28515625" customWidth="1"/>
+    <col min="13827" max="13827" width="6.1640625" customWidth="1"/>
+    <col min="13828" max="13828" width="9.33203125" customWidth="1"/>
     <col min="13829" max="13829" width="9" customWidth="1"/>
-    <col min="13830" max="13830" width="11.28515625" customWidth="1"/>
-    <col min="13831" max="13831" width="17.85546875" customWidth="1"/>
-    <col min="14078" max="14078" width="19.85546875" customWidth="1"/>
-    <col min="14079" max="14079" width="9.140625" customWidth="1"/>
-    <col min="14080" max="14080" width="12.7109375" customWidth="1"/>
-    <col min="14081" max="14081" width="14.85546875" customWidth="1"/>
+    <col min="13830" max="13830" width="11.33203125" customWidth="1"/>
+    <col min="13831" max="13831" width="17.83203125" customWidth="1"/>
+    <col min="14078" max="14078" width="19.83203125" customWidth="1"/>
+    <col min="14079" max="14079" width="9.1640625" customWidth="1"/>
+    <col min="14080" max="14080" width="12.6640625" customWidth="1"/>
+    <col min="14081" max="14081" width="14.83203125" customWidth="1"/>
     <col min="14082" max="14082" width="10" customWidth="1"/>
-    <col min="14083" max="14083" width="6.140625" customWidth="1"/>
-    <col min="14084" max="14084" width="9.28515625" customWidth="1"/>
+    <col min="14083" max="14083" width="6.1640625" customWidth="1"/>
+    <col min="14084" max="14084" width="9.33203125" customWidth="1"/>
     <col min="14085" max="14085" width="9" customWidth="1"/>
-    <col min="14086" max="14086" width="11.28515625" customWidth="1"/>
-    <col min="14087" max="14087" width="17.85546875" customWidth="1"/>
-    <col min="14334" max="14334" width="19.85546875" customWidth="1"/>
-    <col min="14335" max="14335" width="9.140625" customWidth="1"/>
-    <col min="14336" max="14336" width="12.7109375" customWidth="1"/>
-    <col min="14337" max="14337" width="14.85546875" customWidth="1"/>
+    <col min="14086" max="14086" width="11.33203125" customWidth="1"/>
+    <col min="14087" max="14087" width="17.83203125" customWidth="1"/>
+    <col min="14334" max="14334" width="19.83203125" customWidth="1"/>
+    <col min="14335" max="14335" width="9.1640625" customWidth="1"/>
+    <col min="14336" max="14336" width="12.6640625" customWidth="1"/>
+    <col min="14337" max="14337" width="14.83203125" customWidth="1"/>
     <col min="14338" max="14338" width="10" customWidth="1"/>
-    <col min="14339" max="14339" width="6.140625" customWidth="1"/>
-    <col min="14340" max="14340" width="9.28515625" customWidth="1"/>
+    <col min="14339" max="14339" width="6.1640625" customWidth="1"/>
+    <col min="14340" max="14340" width="9.33203125" customWidth="1"/>
     <col min="14341" max="14341" width="9" customWidth="1"/>
-    <col min="14342" max="14342" width="11.28515625" customWidth="1"/>
-    <col min="14343" max="14343" width="17.85546875" customWidth="1"/>
-    <col min="14590" max="14590" width="19.85546875" customWidth="1"/>
-    <col min="14591" max="14591" width="9.140625" customWidth="1"/>
-    <col min="14592" max="14592" width="12.7109375" customWidth="1"/>
-    <col min="14593" max="14593" width="14.85546875" customWidth="1"/>
+    <col min="14342" max="14342" width="11.33203125" customWidth="1"/>
+    <col min="14343" max="14343" width="17.83203125" customWidth="1"/>
+    <col min="14590" max="14590" width="19.83203125" customWidth="1"/>
+    <col min="14591" max="14591" width="9.1640625" customWidth="1"/>
+    <col min="14592" max="14592" width="12.6640625" customWidth="1"/>
+    <col min="14593" max="14593" width="14.83203125" customWidth="1"/>
     <col min="14594" max="14594" width="10" customWidth="1"/>
-    <col min="14595" max="14595" width="6.140625" customWidth="1"/>
-    <col min="14596" max="14596" width="9.28515625" customWidth="1"/>
+    <col min="14595" max="14595" width="6.1640625" customWidth="1"/>
+    <col min="14596" max="14596" width="9.33203125" customWidth="1"/>
     <col min="14597" max="14597" width="9" customWidth="1"/>
-    <col min="14598" max="14598" width="11.28515625" customWidth="1"/>
-    <col min="14599" max="14599" width="17.85546875" customWidth="1"/>
-    <col min="14846" max="14846" width="19.85546875" customWidth="1"/>
-    <col min="14847" max="14847" width="9.140625" customWidth="1"/>
-    <col min="14848" max="14848" width="12.7109375" customWidth="1"/>
-    <col min="14849" max="14849" width="14.85546875" customWidth="1"/>
+    <col min="14598" max="14598" width="11.33203125" customWidth="1"/>
+    <col min="14599" max="14599" width="17.83203125" customWidth="1"/>
+    <col min="14846" max="14846" width="19.83203125" customWidth="1"/>
+    <col min="14847" max="14847" width="9.1640625" customWidth="1"/>
+    <col min="14848" max="14848" width="12.6640625" customWidth="1"/>
+    <col min="14849" max="14849" width="14.83203125" customWidth="1"/>
     <col min="14850" max="14850" width="10" customWidth="1"/>
-    <col min="14851" max="14851" width="6.140625" customWidth="1"/>
-    <col min="14852" max="14852" width="9.28515625" customWidth="1"/>
+    <col min="14851" max="14851" width="6.1640625" customWidth="1"/>
+    <col min="14852" max="14852" width="9.33203125" customWidth="1"/>
     <col min="14853" max="14853" width="9" customWidth="1"/>
-    <col min="14854" max="14854" width="11.28515625" customWidth="1"/>
-    <col min="14855" max="14855" width="17.85546875" customWidth="1"/>
-    <col min="15102" max="15102" width="19.85546875" customWidth="1"/>
-    <col min="15103" max="15103" width="9.140625" customWidth="1"/>
-    <col min="15104" max="15104" width="12.7109375" customWidth="1"/>
-    <col min="15105" max="15105" width="14.85546875" customWidth="1"/>
+    <col min="14854" max="14854" width="11.33203125" customWidth="1"/>
+    <col min="14855" max="14855" width="17.83203125" customWidth="1"/>
+    <col min="15102" max="15102" width="19.83203125" customWidth="1"/>
+    <col min="15103" max="15103" width="9.1640625" customWidth="1"/>
+    <col min="15104" max="15104" width="12.6640625" customWidth="1"/>
+    <col min="15105" max="15105" width="14.83203125" customWidth="1"/>
     <col min="15106" max="15106" width="10" customWidth="1"/>
-    <col min="15107" max="15107" width="6.140625" customWidth="1"/>
-    <col min="15108" max="15108" width="9.28515625" customWidth="1"/>
+    <col min="15107" max="15107" width="6.1640625" customWidth="1"/>
+    <col min="15108" max="15108" width="9.33203125" customWidth="1"/>
     <col min="15109" max="15109" width="9" customWidth="1"/>
-    <col min="15110" max="15110" width="11.28515625" customWidth="1"/>
-    <col min="15111" max="15111" width="17.85546875" customWidth="1"/>
-    <col min="15358" max="15358" width="19.85546875" customWidth="1"/>
-    <col min="15359" max="15359" width="9.140625" customWidth="1"/>
-    <col min="15360" max="15360" width="12.7109375" customWidth="1"/>
-    <col min="15361" max="15361" width="14.85546875" customWidth="1"/>
+    <col min="15110" max="15110" width="11.33203125" customWidth="1"/>
+    <col min="15111" max="15111" width="17.83203125" customWidth="1"/>
+    <col min="15358" max="15358" width="19.83203125" customWidth="1"/>
+    <col min="15359" max="15359" width="9.1640625" customWidth="1"/>
+    <col min="15360" max="15360" width="12.6640625" customWidth="1"/>
+    <col min="15361" max="15361" width="14.83203125" customWidth="1"/>
     <col min="15362" max="15362" width="10" customWidth="1"/>
-    <col min="15363" max="15363" width="6.140625" customWidth="1"/>
-    <col min="15364" max="15364" width="9.28515625" customWidth="1"/>
+    <col min="15363" max="15363" width="6.1640625" customWidth="1"/>
+    <col min="15364" max="15364" width="9.33203125" customWidth="1"/>
     <col min="15365" max="15365" width="9" customWidth="1"/>
-    <col min="15366" max="15366" width="11.28515625" customWidth="1"/>
-    <col min="15367" max="15367" width="17.85546875" customWidth="1"/>
-    <col min="15614" max="15614" width="19.85546875" customWidth="1"/>
-    <col min="15615" max="15615" width="9.140625" customWidth="1"/>
-    <col min="15616" max="15616" width="12.7109375" customWidth="1"/>
-    <col min="15617" max="15617" width="14.85546875" customWidth="1"/>
+    <col min="15366" max="15366" width="11.33203125" customWidth="1"/>
+    <col min="15367" max="15367" width="17.83203125" customWidth="1"/>
+    <col min="15614" max="15614" width="19.83203125" customWidth="1"/>
+    <col min="15615" max="15615" width="9.1640625" customWidth="1"/>
+    <col min="15616" max="15616" width="12.6640625" customWidth="1"/>
+    <col min="15617" max="15617" width="14.83203125" customWidth="1"/>
     <col min="15618" max="15618" width="10" customWidth="1"/>
-    <col min="15619" max="15619" width="6.140625" customWidth="1"/>
-    <col min="15620" max="15620" width="9.28515625" customWidth="1"/>
+    <col min="15619" max="15619" width="6.1640625" customWidth="1"/>
+    <col min="15620" max="15620" width="9.33203125" customWidth="1"/>
     <col min="15621" max="15621" width="9" customWidth="1"/>
-    <col min="15622" max="15622" width="11.28515625" customWidth="1"/>
-    <col min="15623" max="15623" width="17.85546875" customWidth="1"/>
-    <col min="15870" max="15870" width="19.85546875" customWidth="1"/>
-    <col min="15871" max="15871" width="9.140625" customWidth="1"/>
-    <col min="15872" max="15872" width="12.7109375" customWidth="1"/>
-    <col min="15873" max="15873" width="14.85546875" customWidth="1"/>
+    <col min="15622" max="15622" width="11.33203125" customWidth="1"/>
+    <col min="15623" max="15623" width="17.83203125" customWidth="1"/>
+    <col min="15870" max="15870" width="19.83203125" customWidth="1"/>
+    <col min="15871" max="15871" width="9.1640625" customWidth="1"/>
+    <col min="15872" max="15872" width="12.6640625" customWidth="1"/>
+    <col min="15873" max="15873" width="14.83203125" customWidth="1"/>
     <col min="15874" max="15874" width="10" customWidth="1"/>
-    <col min="15875" max="15875" width="6.140625" customWidth="1"/>
-    <col min="15876" max="15876" width="9.28515625" customWidth="1"/>
+    <col min="15875" max="15875" width="6.1640625" customWidth="1"/>
+    <col min="15876" max="15876" width="9.33203125" customWidth="1"/>
     <col min="15877" max="15877" width="9" customWidth="1"/>
-    <col min="15878" max="15878" width="11.28515625" customWidth="1"/>
-    <col min="15879" max="15879" width="17.85546875" customWidth="1"/>
-    <col min="16126" max="16126" width="19.85546875" customWidth="1"/>
-    <col min="16127" max="16127" width="9.140625" customWidth="1"/>
-    <col min="16128" max="16128" width="12.7109375" customWidth="1"/>
-    <col min="16129" max="16129" width="14.85546875" customWidth="1"/>
+    <col min="15878" max="15878" width="11.33203125" customWidth="1"/>
+    <col min="15879" max="15879" width="17.83203125" customWidth="1"/>
+    <col min="16126" max="16126" width="19.83203125" customWidth="1"/>
+    <col min="16127" max="16127" width="9.1640625" customWidth="1"/>
+    <col min="16128" max="16128" width="12.6640625" customWidth="1"/>
+    <col min="16129" max="16129" width="14.83203125" customWidth="1"/>
     <col min="16130" max="16130" width="10" customWidth="1"/>
-    <col min="16131" max="16131" width="6.140625" customWidth="1"/>
-    <col min="16132" max="16132" width="9.28515625" customWidth="1"/>
+    <col min="16131" max="16131" width="6.1640625" customWidth="1"/>
+    <col min="16132" max="16132" width="9.33203125" customWidth="1"/>
     <col min="16133" max="16133" width="9" customWidth="1"/>
-    <col min="16134" max="16134" width="11.28515625" customWidth="1"/>
-    <col min="16135" max="16135" width="17.85546875" customWidth="1"/>
+    <col min="16134" max="16134" width="11.33203125" customWidth="1"/>
+    <col min="16135" max="16135" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
     </row>
-    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:7" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="33"/>
+      <c r="C2" s="30"/>
       <c r="D2" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="36" t="s">
+      <c r="E2" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="37"/>
+      <c r="F2" s="34"/>
       <c r="G2" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="31"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35"/>
+    <row r="3" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="32"/>
       <c r="D3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="38" t="s">
+      <c r="E3" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="39"/>
+      <c r="F3" s="36"/>
       <c r="G3" s="14" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>12</v>
       </c>
@@ -1698,7 +1711,7 @@
         <v>0.42237309792162286</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>11</v>
       </c>
@@ -1723,18 +1736,18 @@
         <v>0.58216831925213242</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
         <v>7</v>
       </c>
@@ -1758,7 +1771,7 @@
         <v>0.36364385655249698</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>6</v>
       </c>
@@ -1782,104 +1795,110 @@
         <v>0.2689339577683616</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="26" t="s">
+    <row r="9" spans="1:7" ht="43.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
+    <row r="10" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
     </row>
-    <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
     </row>
-    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="18"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+    <row r="12" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38"/>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
     </row>
-    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18"/>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+    <row r="14" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="39"/>
+      <c r="E14" s="39"/>
+      <c r="F14" s="39"/>
+      <c r="G14" s="39"/>
     </row>
-    <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+    <row r="15" spans="1:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="19"/>
     </row>
-    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
+    <row r="16" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="39"/>
+      <c r="E16" s="39"/>
+      <c r="F16" s="39"/>
+      <c r="G16" s="39"/>
     </row>
-    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="F20" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A16:G16"/>
     <mergeCell ref="A11:G11"/>
     <mergeCell ref="A6:G6"/>
     <mergeCell ref="A9:G9"/>
@@ -1889,12 +1908,6 @@
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="A16:G16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
